--- a/2024/workOutPlan.xlsx
+++ b/2024/workOutPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Git\workout\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F657F346-D38C-4633-BD18-6BE4E4E01534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B348BE-F7DF-437C-A9C7-5A2CE740ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>增肌期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,22 @@
   </si>
   <si>
     <t>25kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -829,8 +845,179 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="K3:M3"/>

--- a/2024/workOutPlan.xlsx
+++ b/2024/workOutPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Git\workout\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B348BE-F7DF-437C-A9C7-5A2CE740ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFAE57D-776A-4675-A23C-F21F7914EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
   <si>
     <t>增肌期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,78 @@
   </si>
   <si>
     <t>3*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双杠臂屈伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿弯举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保加利亚蹲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,15 +315,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,18 +358,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -580,7 +685,9 @@
     <col min="2" max="2" width="12.1328125" customWidth="1"/>
     <col min="3" max="3" width="12.86328125" customWidth="1"/>
     <col min="5" max="5" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="14" max="14" width="10.86328125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,20 +697,20 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
         <v>41</v>
       </c>
@@ -617,22 +724,22 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
         <v>33</v>
       </c>
@@ -650,216 +757,216 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="3" t="s">
         <v>41</v>
       </c>
@@ -873,22 +980,22 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="3" t="s">
         <v>33</v>
       </c>
@@ -906,109 +1013,386 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="27">
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:J8"/>
     <mergeCell ref="K8:S8"/>
@@ -1027,6 +1411,14 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024/workOutPlan.xlsx
+++ b/2024/workOutPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Git\workout\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFAE57D-776A-4675-A23C-F21F7914EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AA3BA-F94A-47E0-83B0-94F7BA40E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
   <si>
     <t>增肌期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,127 @@
   </si>
   <si>
     <t>第二周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山羊挺身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶铃摇摆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬垂举腿</t>
+  </si>
+  <si>
+    <t>3*12</t>
+  </si>
+  <si>
+    <t>引体向上</t>
+  </si>
+  <si>
+    <t>10kg</t>
+  </si>
+  <si>
+    <t>5*6</t>
+  </si>
+  <si>
+    <t>直角划船</t>
+  </si>
+  <si>
+    <t>75kg</t>
+  </si>
+  <si>
+    <t>4*6</t>
+  </si>
+  <si>
+    <t>30kg</t>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*10</t>
+  </si>
+  <si>
+    <t>北欧挺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单臂哑铃划船</t>
+  </si>
+  <si>
+    <t>105kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停深蹲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,9 +494,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,10 +532,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -697,701 +845,1230 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="13"/>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25" s="13"/>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="45">
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:J8"/>
@@ -1402,23 +2079,30 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="K14:S14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:S20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2024/workOutPlan.xlsx
+++ b/2024/workOutPlan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Git\workout\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AA3BA-F94A-47E0-83B0-94F7BA40E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2820B847-2E96-46EF-8408-BFF2BDBA0D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="增肌期" sheetId="1" r:id="rId1"/>
+    <sheet name="増力期（力量举）" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="136">
   <si>
     <t>增肌期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +414,150 @@
   </si>
   <si>
     <t>第五周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬垂踢杠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反手引体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小肌肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单脚连续跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97,5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hops单脚跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提踵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单脚硬拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈后爆发推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停顿卧推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增力期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +600,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -483,26 +646,50 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,35 +698,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,16 +1011,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
     <col min="3" max="3" width="12.86328125" customWidth="1"/>
     <col min="5" max="5" width="12.73046875" customWidth="1"/>
     <col min="8" max="8" width="12.46484375" customWidth="1"/>
@@ -839,1231 +1029,2668 @@
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A3" s="16"/>
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="1" t="s">
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="P4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="1" t="s">
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="T5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1" t="s">
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="O6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="P6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="Q6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="V6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="1" t="s">
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="O10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="P10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="Q10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="R10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="S10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="T10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="U10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="V10" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="O11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="P11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="Q11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="R11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="S11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="T11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="U11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="V11" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="O12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="P12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="Q12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="R12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="S12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="T12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="U12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="V12" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2" t="s">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="O13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="P13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15" t="s">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15" t="s">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="1" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="O16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="P16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="Q16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="R16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="S16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="T16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="U16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="V16" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="1" t="s">
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="O17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="P17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="Q17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="R17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="S17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="T17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="U17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="V17" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="1" t="s">
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="O18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="P18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="Q18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="T18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="U18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="V18" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="1" t="s">
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="O19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="P19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="Q19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="R19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="S19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="T19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="U19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="V19" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15" t="s">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15" t="s">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15" t="s">
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="6" t="s">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="O22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="P22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="Q22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="R22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="S22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="T22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="U22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="V22" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="6" t="s">
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="Q23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="R23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="S23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="T23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="U23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="V23" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6" t="s">
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="3" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="O24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="P24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="Q24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11" t="s">
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="T24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="U24" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="V24" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6" t="s">
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="O25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="P25" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="Q25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="R25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="S25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="T25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="U25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="V25" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="16"/>
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15" t="s">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15" t="s">
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15" t="s">
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="12" t="s">
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="12" t="s">
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" s="16"/>
+      <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12" t="s">
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
+      <c r="B30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
+      <c r="E30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A33" s="16"/>
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A35" s="16"/>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A36" s="16"/>
+      <c r="B36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A37" s="16"/>
+      <c r="B37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A38" s="16"/>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A44" s="16"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A45" s="16"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A46" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A47" s="16"/>
+      <c r="B47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A48" s="16"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A49" s="16"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A51" s="16"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A52" s="16"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A53" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A54" s="16"/>
+      <c r="B54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A55" s="16"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A56" s="16"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A57" s="16"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A58" s="16"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A59" s="16"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="118">
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:V53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:V46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:V39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="N14:V14"/>
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:V32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -2072,40 +3699,784 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:S20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="T27:V27"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:S27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A47213F-86B9-44BE-8D0E-F93B6AB841CA}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>